--- a/data/ToneladasBiosanitariosAMB.xlsx
+++ b/data/ToneladasBiosanitariosAMB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE94334C-725F-4892-9544-2654200AC675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675AE2E8-5873-4CDE-B04A-02E6BF67F184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D5C443D-7FEB-4C38-9CAE-3F4D19A614DB}"/>
   </bookViews>
@@ -75,10 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619AC86B-519F-428A-87AA-46C5CD2A3EAC}">
   <dimension ref="A1:B396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="K16" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,3555 +412,3160 @@
       <c r="A2" s="1">
         <v>43983</v>
       </c>
-      <c r="B2" s="2">
-        <f>52116.305/30</f>
-        <v>1737.2101666666667</v>
+      <c r="B2">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43984</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B31" si="0">52116.305/30</f>
-        <v>1737.2101666666667</v>
+      <c r="B3">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43985</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B4">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43986</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B5">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43987</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B6">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43988</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B7">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43989</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B8">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43990</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B9">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43991</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B10">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43992</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B11">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43993</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B12">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43994</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B13">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43995</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B14">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43996</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B15">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43997</v>
       </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B16">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43998</v>
       </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B17">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43999</v>
       </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B18">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44000</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B19">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44001</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B20">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44002</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B21">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44003</v>
       </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B22">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44004</v>
       </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B23">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44005</v>
       </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B24">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44006</v>
       </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B25">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44007</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B26">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44008</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B27">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44009</v>
       </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B28">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44010</v>
       </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B29">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44011</v>
       </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B30">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44012</v>
       </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>1737.2101666666667</v>
+      <c r="B31">
+        <v>1.7372101666666668</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44013</v>
       </c>
-      <c r="B32" s="2">
-        <f>67343.47/31</f>
-        <v>2172.37</v>
+      <c r="B32">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44014</v>
       </c>
-      <c r="B33" s="2">
-        <f t="shared" ref="B33:B62" si="1">67343.47/31</f>
-        <v>2172.37</v>
+      <c r="B33">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44015</v>
       </c>
-      <c r="B34" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B34">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44016</v>
       </c>
-      <c r="B35" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B35">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44017</v>
       </c>
-      <c r="B36" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B36">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44018</v>
       </c>
-      <c r="B37" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B37">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44019</v>
       </c>
-      <c r="B38" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B38">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44020</v>
       </c>
-      <c r="B39" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B39">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44021</v>
       </c>
-      <c r="B40" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B40">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44022</v>
       </c>
-      <c r="B41" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B41">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44023</v>
       </c>
-      <c r="B42" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B42">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44024</v>
       </c>
-      <c r="B43" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B43">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44025</v>
       </c>
-      <c r="B44" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B44">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44026</v>
       </c>
-      <c r="B45" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B45">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44027</v>
       </c>
-      <c r="B46" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B46">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44028</v>
       </c>
-      <c r="B47" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B47">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44029</v>
       </c>
-      <c r="B48" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B48">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44030</v>
       </c>
-      <c r="B49" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B49">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44031</v>
       </c>
-      <c r="B50" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B50">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44032</v>
       </c>
-      <c r="B51" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B51">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44033</v>
       </c>
-      <c r="B52" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B52">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44034</v>
       </c>
-      <c r="B53" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B53">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44035</v>
       </c>
-      <c r="B54" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B54">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44036</v>
       </c>
-      <c r="B55" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B55">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44037</v>
       </c>
-      <c r="B56" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B56">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44038</v>
       </c>
-      <c r="B57" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B57">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44039</v>
       </c>
-      <c r="B58" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B58">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44040</v>
       </c>
-      <c r="B59" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B59">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44041</v>
       </c>
-      <c r="B60" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B60">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44042</v>
       </c>
-      <c r="B61" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B61">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44043</v>
       </c>
-      <c r="B62" s="2">
-        <f t="shared" si="1"/>
-        <v>2172.37</v>
+      <c r="B62">
+        <v>2.1723699999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44044</v>
       </c>
-      <c r="B63" s="2">
-        <f>78252.54/31</f>
-        <v>2524.2754838709675</v>
+      <c r="B63">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44045</v>
       </c>
-      <c r="B64" s="2">
-        <f t="shared" ref="B64:B93" si="2">78252.54/31</f>
-        <v>2524.2754838709675</v>
+      <c r="B64">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44046</v>
       </c>
-      <c r="B65" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B65">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44047</v>
       </c>
-      <c r="B66" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B66">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44048</v>
       </c>
-      <c r="B67" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B67">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44049</v>
       </c>
-      <c r="B68" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B68">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44050</v>
       </c>
-      <c r="B69" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B69">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44051</v>
       </c>
-      <c r="B70" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B70">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44052</v>
       </c>
-      <c r="B71" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B71">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44053</v>
       </c>
-      <c r="B72" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B72">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44054</v>
       </c>
-      <c r="B73" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B73">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44055</v>
       </c>
-      <c r="B74" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B74">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44056</v>
       </c>
-      <c r="B75" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B75">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44057</v>
       </c>
-      <c r="B76" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B76">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44058</v>
       </c>
-      <c r="B77" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B77">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44059</v>
       </c>
-      <c r="B78" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B78">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44060</v>
       </c>
-      <c r="B79" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B79">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44061</v>
       </c>
-      <c r="B80" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B80">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44062</v>
       </c>
-      <c r="B81" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B81">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44063</v>
       </c>
-      <c r="B82" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B82">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44064</v>
       </c>
-      <c r="B83" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B83">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44065</v>
       </c>
-      <c r="B84" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B84">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44066</v>
       </c>
-      <c r="B85" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B85">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44067</v>
       </c>
-      <c r="B86" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B86">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44068</v>
       </c>
-      <c r="B87" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B87">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44069</v>
       </c>
-      <c r="B88" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B88">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44070</v>
       </c>
-      <c r="B89" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B89">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44071</v>
       </c>
-      <c r="B90" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B90">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44072</v>
       </c>
-      <c r="B91" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B91">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44073</v>
       </c>
-      <c r="B92" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B92">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44074</v>
       </c>
-      <c r="B93" s="2">
-        <f t="shared" si="2"/>
-        <v>2524.2754838709675</v>
+      <c r="B93">
+        <v>2.5242754838709676</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44075</v>
       </c>
-      <c r="B94" s="2">
-        <f>78643.16/30</f>
-        <v>2621.4386666666669</v>
+      <c r="B94">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44076</v>
       </c>
-      <c r="B95" s="2">
-        <f t="shared" ref="B95:B123" si="3">78643.16/30</f>
-        <v>2621.4386666666669</v>
+      <c r="B95">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44077</v>
       </c>
-      <c r="B96" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B96">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44078</v>
       </c>
-      <c r="B97" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B97">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44079</v>
       </c>
-      <c r="B98" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B98">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44080</v>
       </c>
-      <c r="B99" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B99">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44081</v>
       </c>
-      <c r="B100" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B100">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44082</v>
       </c>
-      <c r="B101" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B101">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44083</v>
       </c>
-      <c r="B102" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B102">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44084</v>
       </c>
-      <c r="B103" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B103">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44085</v>
       </c>
-      <c r="B104" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B104">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44086</v>
       </c>
-      <c r="B105" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B105">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44087</v>
       </c>
-      <c r="B106" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B106">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44088</v>
       </c>
-      <c r="B107" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B107">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44089</v>
       </c>
-      <c r="B108" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B108">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44090</v>
       </c>
-      <c r="B109" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B109">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44091</v>
       </c>
-      <c r="B110" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B110">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44092</v>
       </c>
-      <c r="B111" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B111">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44093</v>
       </c>
-      <c r="B112" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B112">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44094</v>
       </c>
-      <c r="B113" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B113">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44095</v>
       </c>
-      <c r="B114" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B114">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44096</v>
       </c>
-      <c r="B115" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B115">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44097</v>
       </c>
-      <c r="B116" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B116">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44098</v>
       </c>
-      <c r="B117" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B117">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44099</v>
       </c>
-      <c r="B118" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B118">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44100</v>
       </c>
-      <c r="B119" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B119">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44101</v>
       </c>
-      <c r="B120" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B120">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44102</v>
       </c>
-      <c r="B121" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B121">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44103</v>
       </c>
-      <c r="B122" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B122">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44104</v>
       </c>
-      <c r="B123" s="2">
-        <f t="shared" si="3"/>
-        <v>2621.4386666666669</v>
+      <c r="B123">
+        <v>2.6214386666666667</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44105</v>
       </c>
-      <c r="B124" s="2">
-        <f>76358.05/31</f>
-        <v>2463.1629032258065</v>
+      <c r="B124">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44106</v>
       </c>
-      <c r="B125" s="2">
-        <f t="shared" ref="B125:B154" si="4">76358.05/31</f>
-        <v>2463.1629032258065</v>
+      <c r="B125">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44107</v>
       </c>
-      <c r="B126" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B126">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44108</v>
       </c>
-      <c r="B127" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B127">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44109</v>
       </c>
-      <c r="B128" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B128">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44110</v>
       </c>
-      <c r="B129" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B129">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44111</v>
       </c>
-      <c r="B130" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B130">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44112</v>
       </c>
-      <c r="B131" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B131">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44113</v>
       </c>
-      <c r="B132" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B132">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44114</v>
       </c>
-      <c r="B133" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B133">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44115</v>
       </c>
-      <c r="B134" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B134">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44116</v>
       </c>
-      <c r="B135" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B135">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44117</v>
       </c>
-      <c r="B136" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B136">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44118</v>
       </c>
-      <c r="B137" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B137">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44119</v>
       </c>
-      <c r="B138" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B138">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44120</v>
       </c>
-      <c r="B139" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B139">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44121</v>
       </c>
-      <c r="B140" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B140">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44122</v>
       </c>
-      <c r="B141" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B141">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44123</v>
       </c>
-      <c r="B142" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B142">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44124</v>
       </c>
-      <c r="B143" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B143">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44125</v>
       </c>
-      <c r="B144" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B144">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44126</v>
       </c>
-      <c r="B145" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B145">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44127</v>
       </c>
-      <c r="B146" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B146">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44128</v>
       </c>
-      <c r="B147" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B147">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44129</v>
       </c>
-      <c r="B148" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B148">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44130</v>
       </c>
-      <c r="B149" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B149">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44131</v>
       </c>
-      <c r="B150" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B150">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44132</v>
       </c>
-      <c r="B151" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B151">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44133</v>
       </c>
-      <c r="B152" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B152">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44134</v>
       </c>
-      <c r="B153" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B153">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44135</v>
       </c>
-      <c r="B154" s="2">
-        <f t="shared" si="4"/>
-        <v>2463.1629032258065</v>
+      <c r="B154">
+        <v>2.4631629032258067</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44136</v>
       </c>
-      <c r="B155" s="2">
-        <f>71264.135/30</f>
-        <v>2375.4711666666667</v>
+      <c r="B155">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44137</v>
       </c>
-      <c r="B156" s="2">
-        <f t="shared" ref="B156:B184" si="5">71264.135/30</f>
-        <v>2375.4711666666667</v>
+      <c r="B156">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44138</v>
       </c>
-      <c r="B157" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B157">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44139</v>
       </c>
-      <c r="B158" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B158">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44140</v>
       </c>
-      <c r="B159" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B159">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44141</v>
       </c>
-      <c r="B160" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B160">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44142</v>
       </c>
-      <c r="B161" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B161">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44143</v>
       </c>
-      <c r="B162" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B162">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44144</v>
       </c>
-      <c r="B163" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B163">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44145</v>
       </c>
-      <c r="B164" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B164">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44146</v>
       </c>
-      <c r="B165" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B165">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44147</v>
       </c>
-      <c r="B166" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B166">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44148</v>
       </c>
-      <c r="B167" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B167">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44149</v>
       </c>
-      <c r="B168" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B168">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44150</v>
       </c>
-      <c r="B169" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B169">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44151</v>
       </c>
-      <c r="B170" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B170">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44152</v>
       </c>
-      <c r="B171" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B171">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44153</v>
       </c>
-      <c r="B172" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B172">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44154</v>
       </c>
-      <c r="B173" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B173">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44155</v>
       </c>
-      <c r="B174" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B174">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44156</v>
       </c>
-      <c r="B175" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B175">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44157</v>
       </c>
-      <c r="B176" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B176">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44158</v>
       </c>
-      <c r="B177" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B177">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44159</v>
       </c>
-      <c r="B178" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B178">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44160</v>
       </c>
-      <c r="B179" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B179">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44161</v>
       </c>
-      <c r="B180" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B180">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44162</v>
       </c>
-      <c r="B181" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B181">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44163</v>
       </c>
-      <c r="B182" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B182">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44164</v>
       </c>
-      <c r="B183" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B183">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44165</v>
       </c>
-      <c r="B184" s="2">
-        <f t="shared" si="5"/>
-        <v>2375.4711666666667</v>
+      <c r="B184">
+        <v>2.3754711666666668</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44166</v>
       </c>
-      <c r="B185" s="2">
-        <f>77020.65/31</f>
-        <v>2484.5370967741933</v>
+      <c r="B185">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44167</v>
       </c>
-      <c r="B186" s="2">
-        <f t="shared" ref="B186:B215" si="6">77020.65/31</f>
-        <v>2484.5370967741933</v>
+      <c r="B186">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44168</v>
       </c>
-      <c r="B187" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B187">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44169</v>
       </c>
-      <c r="B188" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B188">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44170</v>
       </c>
-      <c r="B189" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B189">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44171</v>
       </c>
-      <c r="B190" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B190">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44172</v>
       </c>
-      <c r="B191" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B191">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44173</v>
       </c>
-      <c r="B192" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B192">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44174</v>
       </c>
-      <c r="B193" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B193">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44175</v>
       </c>
-      <c r="B194" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B194">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44176</v>
       </c>
-      <c r="B195" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B195">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44177</v>
       </c>
-      <c r="B196" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B196">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44178</v>
       </c>
-      <c r="B197" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B197">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44179</v>
       </c>
-      <c r="B198" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B198">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44180</v>
       </c>
-      <c r="B199" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B199">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44181</v>
       </c>
-      <c r="B200" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B200">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44182</v>
       </c>
-      <c r="B201" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B201">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44183</v>
       </c>
-      <c r="B202" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B202">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44184</v>
       </c>
-      <c r="B203" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B203">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44185</v>
       </c>
-      <c r="B204" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B204">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44186</v>
       </c>
-      <c r="B205" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B205">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44187</v>
       </c>
-      <c r="B206" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B206">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44188</v>
       </c>
-      <c r="B207" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B207">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44189</v>
       </c>
-      <c r="B208" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B208">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44190</v>
       </c>
-      <c r="B209" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B209">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44191</v>
       </c>
-      <c r="B210" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B210">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44192</v>
       </c>
-      <c r="B211" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B211">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44193</v>
       </c>
-      <c r="B212" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B212">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44194</v>
       </c>
-      <c r="B213" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B213">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44195</v>
       </c>
-      <c r="B214" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B214">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44196</v>
       </c>
-      <c r="B215" s="2">
-        <f t="shared" si="6"/>
-        <v>2484.5370967741933</v>
+      <c r="B215">
+        <v>2.4845370967741931</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44197</v>
       </c>
-      <c r="B216" s="2">
-        <f>75688.405/31</f>
-        <v>2441.5614516129031</v>
+      <c r="B216">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44198</v>
       </c>
-      <c r="B217" s="2">
-        <f t="shared" ref="B217:B246" si="7">75688.405/31</f>
-        <v>2441.5614516129031</v>
+      <c r="B217">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44199</v>
       </c>
-      <c r="B218" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B218">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44200</v>
       </c>
-      <c r="B219" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B219">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44201</v>
       </c>
-      <c r="B220" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B220">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44202</v>
       </c>
-      <c r="B221" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B221">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44203</v>
       </c>
-      <c r="B222" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B222">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44204</v>
       </c>
-      <c r="B223" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B223">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44205</v>
       </c>
-      <c r="B224" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B224">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44206</v>
       </c>
-      <c r="B225" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B225">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44207</v>
       </c>
-      <c r="B226" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B226">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44208</v>
       </c>
-      <c r="B227" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B227">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44209</v>
       </c>
-      <c r="B228" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B228">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44210</v>
       </c>
-      <c r="B229" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B229">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44211</v>
       </c>
-      <c r="B230" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B230">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44212</v>
       </c>
-      <c r="B231" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B231">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44213</v>
       </c>
-      <c r="B232" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B232">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44214</v>
       </c>
-      <c r="B233" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B233">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44215</v>
       </c>
-      <c r="B234" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B234">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44216</v>
       </c>
-      <c r="B235" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B235">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44217</v>
       </c>
-      <c r="B236" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B236">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44218</v>
       </c>
-      <c r="B237" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B237">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44219</v>
       </c>
-      <c r="B238" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B238">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44220</v>
       </c>
-      <c r="B239" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B239">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44221</v>
       </c>
-      <c r="B240" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B240">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44222</v>
       </c>
-      <c r="B241" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B241">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44223</v>
       </c>
-      <c r="B242" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B242">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44224</v>
       </c>
-      <c r="B243" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B243">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44225</v>
       </c>
-      <c r="B244" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B244">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44226</v>
       </c>
-      <c r="B245" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B245">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44227</v>
       </c>
-      <c r="B246" s="2">
-        <f t="shared" si="7"/>
-        <v>2441.5614516129031</v>
+      <c r="B246">
+        <v>2.4415614516129032</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44228</v>
       </c>
-      <c r="B247" s="2">
-        <f>69443.95/28</f>
-        <v>2480.1410714285712</v>
+      <c r="B247">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44229</v>
       </c>
-      <c r="B248" s="2">
-        <f t="shared" ref="B248:B274" si="8">69443.95/28</f>
-        <v>2480.1410714285712</v>
+      <c r="B248">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44230</v>
       </c>
-      <c r="B249" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B249">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44231</v>
       </c>
-      <c r="B250" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B250">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44232</v>
       </c>
-      <c r="B251" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B251">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44233</v>
       </c>
-      <c r="B252" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B252">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44234</v>
       </c>
-      <c r="B253" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B253">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44235</v>
       </c>
-      <c r="B254" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B254">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44236</v>
       </c>
-      <c r="B255" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B255">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44237</v>
       </c>
-      <c r="B256" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B256">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44238</v>
       </c>
-      <c r="B257" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B257">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44239</v>
       </c>
-      <c r="B258" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B258">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44240</v>
       </c>
-      <c r="B259" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B259">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44241</v>
       </c>
-      <c r="B260" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B260">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44242</v>
       </c>
-      <c r="B261" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B261">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44243</v>
       </c>
-      <c r="B262" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B262">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44244</v>
       </c>
-      <c r="B263" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B263">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44245</v>
       </c>
-      <c r="B264" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B264">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44246</v>
       </c>
-      <c r="B265" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B265">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44247</v>
       </c>
-      <c r="B266" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B266">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44248</v>
       </c>
-      <c r="B267" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B267">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44249</v>
       </c>
-      <c r="B268" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B268">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44250</v>
       </c>
-      <c r="B269" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B269">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44251</v>
       </c>
-      <c r="B270" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B270">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44252</v>
       </c>
-      <c r="B271" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B271">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44253</v>
       </c>
-      <c r="B272" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B272">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44254</v>
       </c>
-      <c r="B273" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B273">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44255</v>
       </c>
-      <c r="B274" s="2">
-        <f t="shared" si="8"/>
-        <v>2480.1410714285712</v>
+      <c r="B274">
+        <v>2.4801410714285712</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44256</v>
       </c>
-      <c r="B275" s="2">
-        <f>70195.44/31</f>
-        <v>2264.3690322580646</v>
+      <c r="B275">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44257</v>
       </c>
-      <c r="B276" s="2">
-        <f t="shared" ref="B276:B305" si="9">70195.44/31</f>
-        <v>2264.3690322580646</v>
+      <c r="B276">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44258</v>
       </c>
-      <c r="B277" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B277">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44259</v>
       </c>
-      <c r="B278" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B278">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44260</v>
       </c>
-      <c r="B279" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B279">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44261</v>
       </c>
-      <c r="B280" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B280">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44262</v>
       </c>
-      <c r="B281" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B281">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44263</v>
       </c>
-      <c r="B282" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B282">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44264</v>
       </c>
-      <c r="B283" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B283">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44265</v>
       </c>
-      <c r="B284" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B284">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44266</v>
       </c>
-      <c r="B285" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B285">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44267</v>
       </c>
-      <c r="B286" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B286">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44268</v>
       </c>
-      <c r="B287" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B287">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44269</v>
       </c>
-      <c r="B288" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B288">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44270</v>
       </c>
-      <c r="B289" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B289">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44271</v>
       </c>
-      <c r="B290" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B290">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44272</v>
       </c>
-      <c r="B291" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B291">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44273</v>
       </c>
-      <c r="B292" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B292">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44274</v>
       </c>
-      <c r="B293" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B293">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44275</v>
       </c>
-      <c r="B294" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B294">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44276</v>
       </c>
-      <c r="B295" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B295">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44277</v>
       </c>
-      <c r="B296" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B296">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44278</v>
       </c>
-      <c r="B297" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B297">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44279</v>
       </c>
-      <c r="B298" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B298">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44280</v>
       </c>
-      <c r="B299" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B299">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44281</v>
       </c>
-      <c r="B300" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B300">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44282</v>
       </c>
-      <c r="B301" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B301">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44283</v>
       </c>
-      <c r="B302" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B302">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44284</v>
       </c>
-      <c r="B303" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B303">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44285</v>
       </c>
-      <c r="B304" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B304">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44286</v>
       </c>
-      <c r="B305" s="2">
-        <f t="shared" si="9"/>
-        <v>2264.3690322580646</v>
+      <c r="B305">
+        <v>2.2643690322580645</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44287</v>
       </c>
-      <c r="B306" s="2">
-        <f>70578.215/30</f>
-        <v>2352.6071666666667</v>
+      <c r="B306">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44288</v>
       </c>
-      <c r="B307" s="2">
-        <f t="shared" ref="B307:B335" si="10">70578.215/30</f>
-        <v>2352.6071666666667</v>
+      <c r="B307">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44289</v>
       </c>
-      <c r="B308" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B308">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44290</v>
       </c>
-      <c r="B309" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B309">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44291</v>
       </c>
-      <c r="B310" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B310">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44292</v>
       </c>
-      <c r="B311" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B311">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44293</v>
       </c>
-      <c r="B312" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B312">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44294</v>
       </c>
-      <c r="B313" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B313">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44295</v>
       </c>
-      <c r="B314" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B314">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44296</v>
       </c>
-      <c r="B315" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B315">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44297</v>
       </c>
-      <c r="B316" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B316">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44298</v>
       </c>
-      <c r="B317" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B317">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44299</v>
       </c>
-      <c r="B318" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B318">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44300</v>
       </c>
-      <c r="B319" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B319">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44301</v>
       </c>
-      <c r="B320" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B320">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44302</v>
       </c>
-      <c r="B321" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B321">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44303</v>
       </c>
-      <c r="B322" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B322">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44304</v>
       </c>
-      <c r="B323" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B323">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44305</v>
       </c>
-      <c r="B324" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B324">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44306</v>
       </c>
-      <c r="B325" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B325">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44307</v>
       </c>
-      <c r="B326" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B326">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44308</v>
       </c>
-      <c r="B327" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B327">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44309</v>
       </c>
-      <c r="B328" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B328">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44310</v>
       </c>
-      <c r="B329" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B329">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44311</v>
       </c>
-      <c r="B330" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B330">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44312</v>
       </c>
-      <c r="B331" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B331">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44313</v>
       </c>
-      <c r="B332" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B332">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44314</v>
       </c>
-      <c r="B333" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B333">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44315</v>
       </c>
-      <c r="B334" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B334">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44316</v>
       </c>
-      <c r="B335" s="2">
-        <f t="shared" si="10"/>
-        <v>2352.6071666666667</v>
+      <c r="B335">
+        <v>2.3526071666666666</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44317</v>
       </c>
-      <c r="B336" s="2">
-        <f>147002.26/31</f>
-        <v>4742.0083870967746</v>
+      <c r="B336">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44318</v>
       </c>
-      <c r="B337" s="2">
-        <f t="shared" ref="B337:B366" si="11">147002.26/31</f>
-        <v>4742.0083870967746</v>
+      <c r="B337">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44319</v>
       </c>
-      <c r="B338" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B338">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44320</v>
       </c>
-      <c r="B339" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B339">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44321</v>
       </c>
-      <c r="B340" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B340">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44322</v>
       </c>
-      <c r="B341" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B341">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44323</v>
       </c>
-      <c r="B342" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B342">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44324</v>
       </c>
-      <c r="B343" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B343">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44325</v>
       </c>
-      <c r="B344" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B344">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44326</v>
       </c>
-      <c r="B345" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B345">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44327</v>
       </c>
-      <c r="B346" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B346">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44328</v>
       </c>
-      <c r="B347" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B347">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44329</v>
       </c>
-      <c r="B348" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B348">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44330</v>
       </c>
-      <c r="B349" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B349">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44331</v>
       </c>
-      <c r="B350" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B350">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44332</v>
       </c>
-      <c r="B351" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B351">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44333</v>
       </c>
-      <c r="B352" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B352">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44334</v>
       </c>
-      <c r="B353" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B353">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44335</v>
       </c>
-      <c r="B354" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B354">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44336</v>
       </c>
-      <c r="B355" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B355">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44337</v>
       </c>
-      <c r="B356" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B356">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44338</v>
       </c>
-      <c r="B357" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B357">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44339</v>
       </c>
-      <c r="B358" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B358">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44340</v>
       </c>
-      <c r="B359" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B359">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44341</v>
       </c>
-      <c r="B360" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B360">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44342</v>
       </c>
-      <c r="B361" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B361">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44343</v>
       </c>
-      <c r="B362" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B362">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44344</v>
       </c>
-      <c r="B363" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B363">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44345</v>
       </c>
-      <c r="B364" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B364">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44346</v>
       </c>
-      <c r="B365" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B365">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44347</v>
       </c>
-      <c r="B366" s="2">
-        <f t="shared" si="11"/>
-        <v>4742.0083870967746</v>
+      <c r="B366">
+        <v>4.7420083870967744</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44348</v>
       </c>
-      <c r="B367" s="2">
-        <f>139197.11/30</f>
-        <v>4639.9036666666661</v>
+      <c r="B367">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44349</v>
       </c>
-      <c r="B368" s="2">
-        <f t="shared" ref="B368:B396" si="12">139197.11/30</f>
-        <v>4639.9036666666661</v>
+      <c r="B368">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44350</v>
       </c>
-      <c r="B369" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B369">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44351</v>
       </c>
-      <c r="B370" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B370">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44352</v>
       </c>
-      <c r="B371" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B371">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44353</v>
       </c>
-      <c r="B372" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B372">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44354</v>
       </c>
-      <c r="B373" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B373">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44355</v>
       </c>
-      <c r="B374" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B374">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44356</v>
       </c>
-      <c r="B375" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B375">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44357</v>
       </c>
-      <c r="B376" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B376">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44358</v>
       </c>
-      <c r="B377" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B377">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44359</v>
       </c>
-      <c r="B378" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B378">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44360</v>
       </c>
-      <c r="B379" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B379">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44361</v>
       </c>
-      <c r="B380" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B380">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44362</v>
       </c>
-      <c r="B381" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B381">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44363</v>
       </c>
-      <c r="B382" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B382">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44364</v>
       </c>
-      <c r="B383" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B383">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44365</v>
       </c>
-      <c r="B384" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B384">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44366</v>
       </c>
-      <c r="B385" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B385">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44367</v>
       </c>
-      <c r="B386" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B386">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44368</v>
       </c>
-      <c r="B387" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B387">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44369</v>
       </c>
-      <c r="B388" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B388">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44370</v>
       </c>
-      <c r="B389" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B389">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44371</v>
       </c>
-      <c r="B390" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B390">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44372</v>
       </c>
-      <c r="B391" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B391">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44373</v>
       </c>
-      <c r="B392" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B392">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44374</v>
       </c>
-      <c r="B393" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B393">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44375</v>
       </c>
-      <c r="B394" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B394">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44376</v>
       </c>
-      <c r="B395" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B395">
+        <v>4.6399036666666662</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44377</v>
       </c>
-      <c r="B396" s="2">
-        <f t="shared" si="12"/>
-        <v>4639.9036666666661</v>
+      <c r="B396">
+        <v>4.6399036666666662</v>
       </c>
     </row>
   </sheetData>

--- a/data/ToneladasBiosanitariosAMB.xlsx
+++ b/data/ToneladasBiosanitariosAMB.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675AE2E8-5873-4CDE-B04A-02E6BF67F184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D5C443D-7FEB-4C38-9CAE-3F4D19A614DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,11 +44,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.00000E+00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,9 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,14 +402,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619AC86B-519F-428A-87AA-46C5CD2A3EAC}">
-  <dimension ref="A1:B396"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="K16" sqref="K15:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3472,7 +3486,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44366</v>
       </c>
@@ -3480,7 +3494,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44367</v>
       </c>
@@ -3488,7 +3502,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44368</v>
       </c>
@@ -3496,7 +3510,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44369</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44370</v>
       </c>
@@ -3512,7 +3526,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44371</v>
       </c>
@@ -3520,7 +3534,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44372</v>
       </c>
@@ -3528,7 +3542,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44373</v>
       </c>
@@ -3536,7 +3550,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44374</v>
       </c>
@@ -3544,7 +3558,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44375</v>
       </c>
@@ -3552,7 +3566,7 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44376</v>
       </c>
@@ -3560,12 +3574,1486 @@
         <v>4.6399036666666662</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44377</v>
       </c>
       <c r="B396">
         <v>4.6399036666666662</v>
+      </c>
+      <c r="F396" s="3"/>
+      <c r="G396" s="3"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B397">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B398">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B399">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B400">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B401">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B402">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B403">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B404">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B405">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B406">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B407">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B408">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B409">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B410">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B411">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B412">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B413">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B414">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B415">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B416">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B417">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B418">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B419">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B420">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B421">
+        <v>3.0519926666666666</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B422">
+        <v>3.0519926666666701</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B423">
+        <v>3.0519926666666701</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B424">
+        <v>3.0519926666666701</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B425">
+        <v>3.0519926666666701</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B426">
+        <v>3.0519926666666701</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B427">
+        <v>3.0519926666666701</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B428">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B429">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B430">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B431">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B432">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B433">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B434">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B435">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B436">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B437">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B438">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B439">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B440">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B441">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B442">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B443">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B444">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B445">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B446">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B447">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B448">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B449">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B450">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B451">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B452">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B453">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B454">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B455">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B456">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B457">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B458">
+        <v>1.2497473333333335</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B459">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B460">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B461">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B462">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B463">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B464">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B465">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B466">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B467">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B468">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B469">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B470">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B471">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B472">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B473">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B474">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B475">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B476">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B477">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B478">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B479">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B480">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B481">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B482">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B483">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B484">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B485">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B486">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B487">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B488">
+        <v>1.6654793333333335</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B489" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B490" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B491" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B492" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B493" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B494" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B495" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B496" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B497" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B498" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B499" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B500" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B501" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B502" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B503" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B504" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B505" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B506" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B507" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B508" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B509" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B510" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B511" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B512" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B513" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B514" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B515" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B516" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B517" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B518" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B519" s="2">
+        <v>1.1847713333333334</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B520">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B521">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B522">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B523">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B524">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B525">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B526">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B527">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B528">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B529">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B530">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B531">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B532">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B533">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B534">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B535">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B536">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B537">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B538">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B539">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B540">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B541">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B542">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B543">
+        <v>1.2248196666666666</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B544">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B545">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B546">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B547">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B548">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B549">
+        <v>1.22481966666667</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B550">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B551">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B552">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B553">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B554">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B555">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B556">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B557">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B558">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B559">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B560">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>44542</v>
+      </c>
+      <c r="B561">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B562">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B563">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B564">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B565">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B566">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B567">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B568">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B569">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B570">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B571">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B572">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B573">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B574">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>44556</v>
+      </c>
+      <c r="B575">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B576">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B577">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B578">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B579">
+        <v>0.400507</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B580">
+        <v>0.400507</v>
       </c>
     </row>
   </sheetData>
